--- a/data/trans_camb/P15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1175238387461719</v>
+        <v>0.07908770211328932</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.552311892263206</v>
+        <v>-1.419446011612048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.186174621498561</v>
+        <v>-1.279556568183868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2912385033813041</v>
+        <v>0.4317068200743552</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6269314521268455</v>
+        <v>-0.7582808872211394</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.358538575219846</v>
+        <v>1.973873471312824</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9338489558690108</v>
+        <v>0.7679871950572353</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4686210776084508</v>
+        <v>-0.4316533033698614</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.453796277173486</v>
+        <v>1.293043545553865</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.689209925132621</v>
+        <v>4.859699493500866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.737496597954445</v>
+        <v>2.86598889499667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.411106122011434</v>
+        <v>3.486661808460013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.294405640803222</v>
+        <v>4.313332566705138</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.811716211790705</v>
+        <v>3.850198991409663</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.551895318960618</v>
+        <v>6.200538999491443</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.878571911820665</v>
+        <v>4.026375188106488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.705991706813334</v>
+        <v>2.796501219843429</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.537361699736954</v>
+        <v>4.578022544927096</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.003425987072337602</v>
+        <v>0.0175454765059289</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2508235808873019</v>
+        <v>-0.2358202144256704</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1921150746155832</v>
+        <v>-0.2001550608945052</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03799681048072833</v>
+        <v>0.05735818768382549</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1019918449799967</v>
+        <v>-0.1255324115204899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3356345701684417</v>
+        <v>0.2890050149124932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.137271612458652</v>
+        <v>0.1219356952581687</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07374795792881013</v>
+        <v>-0.07155476850220277</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2269240379132358</v>
+        <v>0.202272526368022</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.049303890364641</v>
+        <v>1.115298056642503</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5737066400359683</v>
+        <v>0.6333049292723397</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7713873206055015</v>
+        <v>0.7871195129920942</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.848093031082514</v>
+        <v>0.8315892721607564</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7242212957362574</v>
+        <v>0.748277075565419</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.273094672521346</v>
+        <v>1.222378370270339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7442824425784359</v>
+        <v>0.7971330871685968</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5190290891634501</v>
+        <v>0.5190614548863391</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8811687379439951</v>
+        <v>0.8859712795535247</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.763795314887606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.313670127763956</v>
+        <v>-2.313670127763957</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.020798307239474</v>
@@ -869,7 +869,7 @@
         <v>-0.247237200846321</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5484630432777998</v>
+        <v>0.5484630432777984</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.412986019735939</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.021698135297388</v>
+        <v>-1.281288774184581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.676229728424499</v>
+        <v>-4.614105116579481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.212221213785999</v>
+        <v>-4.212952662285187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4359478796423087</v>
+        <v>0.442873160488706</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.881932747506018</v>
+        <v>-1.6363035381651</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.788970683597856</v>
+        <v>-0.8579420962588291</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1752022808133635</v>
+        <v>0.1155257544563772</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.556863141847886</v>
+        <v>-2.703094176433141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.925697850458071</v>
+        <v>-2.02931526011919</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.853286906452932</v>
+        <v>2.540287869208025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.250108929424618</v>
+        <v>-1.111130692466019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.5638089722016323</v>
+        <v>-0.6444653859913132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.646980007005334</v>
+        <v>3.554558427463629</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.137186045048681</v>
+        <v>1.201246150679347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.921611107891407</v>
+        <v>1.971852409537568</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.695956343971035</v>
+        <v>2.558796395657183</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3137269789898483</v>
+        <v>-0.3922912362041991</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2946806540451405</v>
+        <v>0.261153482127973</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3213762028448659</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.269035306736025</v>
+        <v>-0.2690353067360252</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4426987768385874</v>
@@ -974,7 +974,7 @@
         <v>-0.05416255843621505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1201524751532157</v>
+        <v>0.1201524751532154</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2125647422938279</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1181834555309599</v>
+        <v>-0.1301048199516741</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4775412889654528</v>
+        <v>-0.4751250932244887</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4308856024343116</v>
+        <v>-0.4238122473884614</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06305781359249302</v>
+        <v>0.07993790134027449</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3425265375547168</v>
+        <v>-0.3071706402953241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1513490650859504</v>
+        <v>-0.1543129923197533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0244874476452061</v>
+        <v>0.01107940155513587</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3582854749294943</v>
+        <v>-0.3696015416972122</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2693782580389754</v>
+        <v>-0.2750453899492518</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3584579882646894</v>
+        <v>0.3310542706863711</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1630155946122465</v>
+        <v>-0.1405602684831428</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.07426117988758998</v>
+        <v>-0.07297835630686518</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9313437923542217</v>
+        <v>0.930609693849299</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2935590515660857</v>
+        <v>0.3123453959084868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4914879839317574</v>
+        <v>0.5348807326807005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4472043421092728</v>
+        <v>0.4094595524340587</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04745856173447107</v>
+        <v>-0.06670285737349248</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.05462250480779186</v>
+        <v>0.04647457298408587</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.7413985886278389</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.10981789298646</v>
+        <v>-0.1098178929864593</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4376605322055249</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.412347361903948</v>
+        <v>-5.071756018915488</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.114055001164002</v>
+        <v>-4.919830027499236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.718696491107613</v>
+        <v>-5.100316803629497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.905624752205821</v>
+        <v>-1.930677962411488</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.086647672636729</v>
+        <v>-2.195812839186257</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.806253249134939</v>
+        <v>-2.522920185819247</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.418861130419188</v>
+        <v>-2.68875644943014</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.772887978045365</v>
+        <v>-2.789923142818625</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.033506533358482</v>
+        <v>-3.070980728401794</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.103086660231804</v>
+        <v>1.181463349216006</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9880106506826951</v>
+        <v>1.350969458142812</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.950303080187833</v>
+        <v>1.514966723101634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.680383395683578</v>
+        <v>4.448476593181196</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.560878335234011</v>
+        <v>3.750576075602038</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.111385423153832</v>
+        <v>2.258298536436177</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.005215583289797</v>
+        <v>1.690745010554618</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.519613615094424</v>
+        <v>1.640686411905649</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9403008438097332</v>
+        <v>1.052588185417553</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.24438088330315</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2142505789051394</v>
+        <v>-0.2142505789051395</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2790886845840735</v>
@@ -1188,7 +1188,7 @@
         <v>0.1511486418933788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.02238853112900649</v>
+        <v>-0.02238853112900634</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06978351594939045</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5974589526888971</v>
+        <v>-0.5801178182589207</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5532392128478624</v>
+        <v>-0.5249415800869215</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5150011469159235</v>
+        <v>-0.5379730223847802</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3168547491635922</v>
+        <v>-0.3234684218469894</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3445509455636095</v>
+        <v>-0.348151984264757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4122082213173606</v>
+        <v>-0.3963152960263586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3377014892039222</v>
+        <v>-0.3701868493087371</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3748694814369218</v>
+        <v>-0.3868183512066555</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4087744816903269</v>
+        <v>-0.4002616578383957</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1955542375182459</v>
+        <v>0.2176242442323623</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1667397185179479</v>
+        <v>0.2876189761217859</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3386518597429275</v>
+        <v>0.2760452869403519</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.411020150126391</v>
+        <v>1.310279370941398</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9845314121368892</v>
+        <v>1.103629364521179</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6284737514474662</v>
+        <v>0.6963906217595374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3884108178058659</v>
+        <v>0.3204023196933518</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2999917719960848</v>
+        <v>0.319312522070145</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1892780031824258</v>
+        <v>0.208429814161334</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.565463620781237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.176978485644231</v>
+        <v>-1.17697848564423</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.053803116238586</v>
@@ -1306,7 +1306,7 @@
         <v>-0.6553435592619019</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.07211378862106155</v>
+        <v>-0.07211378862106085</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4145154558122454</v>
+        <v>-0.3804012538819989</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.864888975662866</v>
+        <v>-2.733138193384603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.570787440927892</v>
+        <v>-2.57557016700741</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8288572702220153</v>
+        <v>0.883874992301003</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8024922180880035</v>
+        <v>-0.9585264833054729</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04466662755981851</v>
+        <v>-0.04351623686058069</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6155349645902116</v>
+        <v>0.6742754623292144</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.422175079761219</v>
+        <v>-1.516108473978487</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.9494881718964683</v>
+        <v>-0.8987336478935184</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.277986420671287</v>
+        <v>2.181273618890664</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.313421036663338</v>
+        <v>-0.3890706167270772</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1260368208352881</v>
+        <v>-0.05290814645577294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.222818263848394</v>
+        <v>3.27437079186703</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.374963477155297</v>
+        <v>1.27379694072034</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.109202547844118</v>
+        <v>1.975076583592898</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.420670584553776</v>
+        <v>2.403014918772009</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2796867548878113</v>
+        <v>0.1177883963262369</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6798726134357916</v>
+        <v>0.7041204028740091</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2110336918705774</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1586636136289067</v>
+        <v>-0.1586636136289065</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3956998789626034</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1042377171706226</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01147028393908452</v>
+        <v>-0.01147028393908441</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05093378461902945</v>
+        <v>-0.04795869045480274</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3503690575552362</v>
+        <v>-0.3384013020996742</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3089761891482646</v>
+        <v>-0.3202387932483418</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1439179545405226</v>
+        <v>0.1499838476417431</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1394917561453514</v>
+        <v>-0.1671943803156627</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007312497716806027</v>
+        <v>-0.006597370897693409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0922707108115753</v>
+        <v>0.1023815816004066</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2120964368757609</v>
+        <v>-0.2266183866049181</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.141281159686697</v>
+        <v>-0.1338453639393452</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3345242753709244</v>
+        <v>0.3162945161623166</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04224111912042637</v>
+        <v>-0.0558633624159501</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02210887702224798</v>
+        <v>-0.00237146138640655</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6969215896799047</v>
+        <v>0.7001131751575251</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2942297323182255</v>
+        <v>0.2729423389766191</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4567007893881252</v>
+        <v>0.4346591668841663</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4177372701888778</v>
+        <v>0.4051724028846154</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04917360809920704</v>
+        <v>0.01954108767514317</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1156447568968371</v>
+        <v>0.1185528431460082</v>
       </c>
     </row>
     <row r="28">
